--- a/Dokumentation/Kommunikationsprotokolle.xlsx
+++ b/Dokumentation/Kommunikationsprotokolle.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B52CB4A-33F5-45C8-871A-E3FB8E9BF558}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3EE397D-F5E2-4140-9039-065ECE64F0CF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19425" windowHeight="11025" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="120">
   <si>
     <t>Status</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -302,23 +302,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1…addP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2…getP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3…setS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4…getS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5…negO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -500,6 +484,34 @@
   </si>
   <si>
     <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>111…addP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>112…getP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>113…setS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>114…getS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>115…negO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -587,7 +599,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="54">
+  <borders count="53">
     <border>
       <left/>
       <right/>
@@ -780,19 +792,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -1254,7 +1253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1295,10 +1294,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1319,49 +1318,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1373,49 +1369,40 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1430,35 +1417,38 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1483,6 +1473,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1490,16 +1483,139 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1508,160 +1624,34 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1959,18 +1949,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
     </row>
     <row r="2" spans="1:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18"/>
@@ -1991,7 +1981,7 @@
       <c r="C3" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="52" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -2014,7 +2004,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="73" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="3">
@@ -2028,7 +2018,7 @@
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="76"/>
+      <c r="A5" s="73"/>
       <c r="D5" s="3" t="s">
         <v>8</v>
       </c>
@@ -2040,7 +2030,7 @@
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="76"/>
+      <c r="A6" s="73"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
@@ -2050,7 +2040,7 @@
     <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="C7" s="22" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>19</v>
@@ -2067,7 +2057,7 @@
       <c r="C9" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="56" t="s">
+      <c r="D9" s="52" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="2" t="s">
@@ -2087,10 +2077,10 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D10" s="72" t="s">
+      <c r="D10" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="74"/>
+      <c r="E10" s="71"/>
       <c r="F10" s="2" t="s">
         <v>1</v>
       </c>
@@ -2099,8 +2089,8 @@
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D11" s="73"/>
-      <c r="E11" s="74"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="71"/>
       <c r="F11" s="2" t="s">
         <v>2</v>
       </c>
@@ -2134,50 +2124,50 @@
       <c r="C14" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="56" t="s">
+      <c r="D14" s="52" t="s">
         <v>4</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="76" t="s">
+      <c r="A15" s="73" t="s">
         <v>1</v>
       </c>
       <c r="D15" s="3">
         <v>1</v>
       </c>
       <c r="E15" s="3"/>
-      <c r="F15" s="57"/>
+      <c r="F15" s="53"/>
     </row>
     <row r="16" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="76"/>
+      <c r="A16" s="73"/>
       <c r="D16" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E16" s="3"/>
-      <c r="F16" s="57"/>
+      <c r="F16" s="53"/>
     </row>
     <row r="17" spans="1:11" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="76"/>
+      <c r="A17" s="73"/>
     </row>
     <row r="18" spans="1:11" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="55"/>
+      <c r="A18" s="51"/>
       <c r="C18" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="56" t="s">
+      <c r="D18" s="52" t="s">
         <v>1</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>16</v>
@@ -2222,9 +2212,9 @@
     </row>
     <row r="23" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C23" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="D23" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" s="52" t="s">
         <v>25</v>
       </c>
       <c r="E23" s="9"/>
@@ -2233,7 +2223,7 @@
       <c r="H23" s="9"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D24" s="57"/>
+      <c r="D24" s="53"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
@@ -2272,10 +2262,10 @@
         <v>20</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
@@ -2283,7 +2273,7 @@
       <c r="K27" s="9"/>
     </row>
     <row r="28" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="69" t="s">
+      <c r="A28" s="66" t="s">
         <v>2</v>
       </c>
       <c r="D28" s="16"/>
@@ -2294,7 +2284,7 @@
       <c r="K28" s="9"/>
     </row>
     <row r="29" spans="1:11" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="70"/>
+      <c r="A29" s="67"/>
       <c r="D29" s="13"/>
       <c r="E29" s="8"/>
       <c r="H29" s="9"/>
@@ -2303,11 +2293,11 @@
       <c r="K29" s="9"/>
     </row>
     <row r="30" spans="1:11" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="71"/>
+      <c r="A30" s="68"/>
       <c r="C30" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="D30" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30" s="52" t="s">
         <v>25</v>
       </c>
       <c r="H30" s="9"/>
@@ -2316,7 +2306,7 @@
       <c r="K30" s="9"/>
     </row>
     <row r="31" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="55"/>
+      <c r="A31" s="51"/>
       <c r="D31" s="3"/>
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
@@ -2324,7 +2314,7 @@
       <c r="K31" s="9"/>
     </row>
     <row r="32" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="55"/>
+      <c r="A32" s="51"/>
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2368,28 +2358,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="77" t="s">
+      <c r="C1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="79"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="76"/>
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="17"/>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="52" t="s">
+      <c r="F2" s="48" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2398,16 +2388,16 @@
         <v>-1</v>
       </c>
       <c r="B3" s="17"/>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="53" t="s">
+      <c r="F3" s="49" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2419,7 +2409,7 @@
       <c r="C4" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="46" t="s">
         <v>26</v>
       </c>
       <c r="E4" s="14" t="s">
@@ -2437,7 +2427,7 @@
       <c r="C5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="46" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="14" t="s">
@@ -2455,7 +2445,7 @@
       <c r="C6" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="50" t="s">
+      <c r="D6" s="46" t="s">
         <v>28</v>
       </c>
       <c r="E6" s="14" t="s">
@@ -2470,14 +2460,14 @@
         <v>3</v>
       </c>
       <c r="B7" s="17"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="51" t="s">
+      <c r="C7" s="43"/>
+      <c r="D7" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="47" t="s">
+      <c r="E7" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="54"/>
+      <c r="F7" s="50"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="17"/>
@@ -2505,8 +2495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27:I31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2516,7 +2506,7 @@
     <col min="4" max="7" width="8.625" style="23"/>
     <col min="8" max="8" width="8.625" style="23" customWidth="1"/>
     <col min="9" max="9" width="8.625" style="23"/>
-    <col min="10" max="10" width="2.625" style="23" customWidth="1"/>
+    <col min="10" max="10" width="7.25" style="23" customWidth="1"/>
     <col min="11" max="11" width="8.625" style="23"/>
     <col min="12" max="12" width="7.625" style="23" customWidth="1"/>
     <col min="13" max="13" width="8.625" style="23"/>
@@ -2527,246 +2517,250 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="82"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="79"/>
     </row>
     <row r="2" spans="1:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="89"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="128"/>
       <c r="J2" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="R2" s="58"/>
-      <c r="S2" s="58"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
     </row>
     <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="90" t="s">
+      <c r="B3" s="129" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="92"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="131"/>
       <c r="J3" s="26" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="27"/>
-      <c r="S3" s="58"/>
+      <c r="S3" s="54"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="28"/>
-      <c r="B4" s="83" t="s">
+      <c r="A4" s="80" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" s="122" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="84"/>
-      <c r="D4" s="85" t="s">
+      <c r="C4" s="123"/>
+      <c r="D4" s="124" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="86"/>
-      <c r="F4" s="83" t="s">
+      <c r="E4" s="125"/>
+      <c r="F4" s="122" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="84"/>
-      <c r="H4" s="85" t="s">
+      <c r="G4" s="123"/>
+      <c r="H4" s="124" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="86"/>
-      <c r="J4" s="28"/>
+      <c r="I4" s="125"/>
+      <c r="J4" s="80" t="s">
+        <v>119</v>
+      </c>
       <c r="R4" s="27"/>
-      <c r="S4" s="58"/>
+      <c r="S4" s="54"/>
     </row>
     <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
-      <c r="B5" s="29" t="s">
+      <c r="A5" s="82"/>
+      <c r="B5" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="30" t="s">
+      <c r="G5" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="31" t="s">
+      <c r="H5" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="32" t="s">
+      <c r="I5" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="J5" s="26"/>
+      <c r="J5" s="82"/>
       <c r="R5" s="27"/>
-      <c r="S5" s="58"/>
+      <c r="S5" s="54"/>
     </row>
     <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
-      <c r="B6" s="33" t="s">
+      <c r="A6" s="32"/>
+      <c r="B6" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="34" t="s">
+      <c r="G6" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="H6" s="35" t="s">
+      <c r="H6" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="I6" s="35" t="s">
+      <c r="I6" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="J6" s="36"/>
+      <c r="J6" s="35"/>
       <c r="R6" s="27"/>
-      <c r="S6" s="58"/>
+      <c r="S6" s="54"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="R7" s="27"/>
-      <c r="S7" s="58"/>
+      <c r="S7" s="54"/>
     </row>
     <row r="8" spans="1:19" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="93" t="s">
+      <c r="B8" s="121" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="93"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="93"/>
-      <c r="J8" s="38"/>
-      <c r="R8" s="58"/>
-      <c r="S8" s="58"/>
+      <c r="C8" s="121"/>
+      <c r="D8" s="121"/>
+      <c r="E8" s="121"/>
+      <c r="F8" s="121"/>
+      <c r="J8" s="37"/>
+      <c r="R8" s="54"/>
+      <c r="S8" s="54"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="93" t="s">
+      <c r="B9" s="121" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="93"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="93"/>
-      <c r="J9" s="39"/>
-      <c r="R9" s="58"/>
-      <c r="S9" s="58"/>
+      <c r="C9" s="121"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="121"/>
+      <c r="F9" s="121"/>
+      <c r="J9" s="38"/>
+      <c r="R9" s="54"/>
+      <c r="S9" s="54"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="93" t="s">
+      <c r="B10" s="121" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="93"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="93"/>
-      <c r="F10" s="93"/>
+      <c r="C10" s="121"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="121"/>
+      <c r="F10" s="121"/>
       <c r="J10" s="25"/>
-      <c r="R10" s="58"/>
-      <c r="S10" s="58"/>
+      <c r="R10" s="54"/>
+      <c r="S10" s="54"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="93" t="s">
+      <c r="B11" s="121" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="93"/>
-      <c r="D11" s="93"/>
-      <c r="E11" s="93"/>
-      <c r="F11" s="93"/>
-      <c r="R11" s="58"/>
-      <c r="S11" s="58"/>
+      <c r="C11" s="121"/>
+      <c r="D11" s="121"/>
+      <c r="E11" s="121"/>
+      <c r="F11" s="121"/>
+      <c r="R11" s="54"/>
+      <c r="S11" s="54"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="93" t="s">
+      <c r="B12" s="121" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="93"/>
-      <c r="D12" s="93"/>
-      <c r="E12" s="93"/>
-      <c r="F12" s="93"/>
-      <c r="R12" s="58"/>
-      <c r="S12" s="58"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="121"/>
+      <c r="F12" s="121"/>
+      <c r="R12" s="54"/>
+      <c r="S12" s="54"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" s="58"/>
-      <c r="B13" s="58"/>
+      <c r="A13" s="54"/>
+      <c r="B13" s="54"/>
     </row>
     <row r="14" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="27"/>
       <c r="B14" s="27"/>
     </row>
     <row r="15" spans="1:19" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="80" t="s">
-        <v>91</v>
-      </c>
-      <c r="B15" s="81"/>
-      <c r="C15" s="81"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="82"/>
-      <c r="K15" s="80" t="s">
-        <v>92</v>
-      </c>
-      <c r="L15" s="81"/>
-      <c r="M15" s="81"/>
-      <c r="N15" s="81"/>
-      <c r="O15" s="81"/>
-      <c r="P15" s="82"/>
+      <c r="A15" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="78"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="78"/>
+      <c r="I15" s="79"/>
+      <c r="K15" s="77" t="s">
+        <v>88</v>
+      </c>
+      <c r="L15" s="78"/>
+      <c r="M15" s="78"/>
+      <c r="N15" s="78"/>
+      <c r="O15" s="78"/>
+      <c r="P15" s="79"/>
     </row>
     <row r="16" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
@@ -2775,238 +2769,238 @@
       <c r="B16" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="99" t="s">
+      <c r="C16" s="103" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="95"/>
-      <c r="E16" s="63" t="s">
+      <c r="D16" s="104"/>
+      <c r="E16" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="F16" s="99" t="s">
+      <c r="F16" s="103" t="s">
         <v>63</v>
       </c>
-      <c r="G16" s="95"/>
-      <c r="H16" s="94" t="s">
+      <c r="G16" s="104"/>
+      <c r="H16" s="105" t="s">
         <v>64</v>
       </c>
-      <c r="I16" s="95"/>
-      <c r="K16" s="99" t="s">
+      <c r="I16" s="104"/>
+      <c r="K16" s="103" t="s">
         <v>61</v>
       </c>
-      <c r="L16" s="95"/>
-      <c r="M16" s="94" t="s">
+      <c r="L16" s="104"/>
+      <c r="M16" s="105" t="s">
+        <v>89</v>
+      </c>
+      <c r="N16" s="105"/>
+      <c r="O16" s="116" t="s">
+        <v>90</v>
+      </c>
+      <c r="P16" s="117"/>
+    </row>
+    <row r="17" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="106" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="107"/>
+      <c r="E17" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="106" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" s="107"/>
+      <c r="H17" s="108" t="s">
+        <v>65</v>
+      </c>
+      <c r="I17" s="107"/>
+      <c r="K17" s="85" t="s">
+        <v>65</v>
+      </c>
+      <c r="L17" s="86"/>
+      <c r="M17" s="96" t="s">
+        <v>66</v>
+      </c>
+      <c r="N17" s="96"/>
+      <c r="O17" s="118" t="s">
+        <v>91</v>
+      </c>
+      <c r="P17" s="110"/>
+    </row>
+    <row r="18" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="119" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="120"/>
+      <c r="C18" s="83" t="s">
+        <v>113</v>
+      </c>
+      <c r="D18" s="84"/>
+      <c r="E18" s="80" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="95" t="s">
+        <v>72</v>
+      </c>
+      <c r="G18" s="95"/>
+      <c r="H18" s="62" t="s">
+        <v>79</v>
+      </c>
+      <c r="I18" s="63" t="s">
+        <v>79</v>
+      </c>
+      <c r="K18" s="83" t="s">
+        <v>92</v>
+      </c>
+      <c r="L18" s="95"/>
+      <c r="M18" s="83" t="s">
+        <v>94</v>
+      </c>
+      <c r="N18" s="84"/>
+      <c r="O18" s="114" t="s">
+        <v>95</v>
+      </c>
+      <c r="P18" s="115"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" s="85" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="86"/>
+      <c r="C19" s="85" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19" s="86"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="G19" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="H19" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="I19" s="55" t="s">
+        <v>84</v>
+      </c>
+      <c r="K19" s="85" t="s">
+        <v>70</v>
+      </c>
+      <c r="L19" s="96"/>
+      <c r="M19" s="85"/>
+      <c r="N19" s="86"/>
+      <c r="O19" s="109" t="s">
+        <v>99</v>
+      </c>
+      <c r="P19" s="110"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" s="85" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="86"/>
+      <c r="C20" s="85" t="s">
+        <v>115</v>
+      </c>
+      <c r="D20" s="86"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="96" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" s="96"/>
+      <c r="H20" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="I20" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="K20" s="85" t="s">
         <v>93</v>
       </c>
-      <c r="N16" s="94"/>
-      <c r="O16" s="111" t="s">
-        <v>94</v>
-      </c>
-      <c r="P16" s="112"/>
-    </row>
-    <row r="17" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="65" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="65" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="96" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" s="97"/>
-      <c r="E17" s="62" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" s="96" t="s">
-        <v>66</v>
-      </c>
-      <c r="G17" s="97"/>
-      <c r="H17" s="98" t="s">
-        <v>65</v>
-      </c>
-      <c r="I17" s="97"/>
-      <c r="K17" s="109" t="s">
-        <v>65</v>
-      </c>
-      <c r="L17" s="110"/>
-      <c r="M17" s="101" t="s">
-        <v>66</v>
-      </c>
-      <c r="N17" s="101"/>
-      <c r="O17" s="113" t="s">
-        <v>95</v>
-      </c>
-      <c r="P17" s="114"/>
-    </row>
-    <row r="18" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="107" t="s">
-        <v>68</v>
-      </c>
-      <c r="B18" s="108"/>
-      <c r="C18" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" s="60"/>
-      <c r="E18" s="102" t="s">
+      <c r="L20" s="96"/>
+      <c r="M20" s="85"/>
+      <c r="N20" s="86"/>
+      <c r="O20" s="109" t="s">
+        <v>96</v>
+      </c>
+      <c r="P20" s="110"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21" s="85" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="86"/>
+      <c r="C21" s="97" t="s">
+        <v>116</v>
+      </c>
+      <c r="D21" s="132"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="G21" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="H21" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="F18" s="100" t="s">
-        <v>76</v>
-      </c>
-      <c r="G18" s="100"/>
-      <c r="H18" s="67" t="s">
+      <c r="I21" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="K21" s="85"/>
+      <c r="L21" s="96"/>
+      <c r="M21" s="85"/>
+      <c r="N21" s="86"/>
+      <c r="O21" s="109" t="s">
+        <v>97</v>
+      </c>
+      <c r="P21" s="110"/>
+    </row>
+    <row r="22" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="87" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" s="88"/>
+      <c r="C22" s="99" t="s">
+        <v>117</v>
+      </c>
+      <c r="D22" s="133"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="I18" s="68" t="s">
-        <v>83</v>
-      </c>
-      <c r="K18" s="116" t="s">
-        <v>96</v>
-      </c>
-      <c r="L18" s="100"/>
-      <c r="M18" s="116" t="s">
+      <c r="I22" s="56"/>
+      <c r="K22" s="87"/>
+      <c r="L22" s="111"/>
+      <c r="M22" s="87"/>
+      <c r="N22" s="88"/>
+      <c r="O22" s="112" t="s">
         <v>98</v>
       </c>
-      <c r="N18" s="117"/>
-      <c r="O18" s="121" t="s">
-        <v>99</v>
-      </c>
-      <c r="P18" s="122"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="109" t="s">
-        <v>67</v>
-      </c>
-      <c r="B19" s="110"/>
-      <c r="C19" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" s="59"/>
-      <c r="E19" s="103"/>
-      <c r="F19" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="G19" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="H19" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="I19" s="59" t="s">
-        <v>88</v>
-      </c>
-      <c r="K19" s="109" t="s">
-        <v>71</v>
-      </c>
-      <c r="L19" s="101"/>
-      <c r="M19" s="109"/>
-      <c r="N19" s="110"/>
-      <c r="O19" s="115" t="s">
-        <v>103</v>
-      </c>
-      <c r="P19" s="114"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="109" t="s">
-        <v>69</v>
-      </c>
-      <c r="B20" s="110"/>
-      <c r="C20" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="103"/>
-      <c r="F20" s="101" t="s">
-        <v>77</v>
-      </c>
-      <c r="G20" s="101"/>
-      <c r="H20" s="41" t="s">
-        <v>85</v>
-      </c>
-      <c r="I20" s="59" t="s">
-        <v>89</v>
-      </c>
-      <c r="K20" s="109" t="s">
-        <v>97</v>
-      </c>
-      <c r="L20" s="101"/>
-      <c r="M20" s="109"/>
-      <c r="N20" s="110"/>
-      <c r="O20" s="115" t="s">
-        <v>100</v>
-      </c>
-      <c r="P20" s="114"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="109" t="s">
-        <v>75</v>
-      </c>
-      <c r="B21" s="110"/>
-      <c r="C21" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" s="43"/>
-      <c r="E21" s="103"/>
-      <c r="F21" s="41" t="s">
-        <v>79</v>
-      </c>
-      <c r="G21" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="H21" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="I21" s="66" t="s">
-        <v>86</v>
-      </c>
-      <c r="K21" s="109"/>
-      <c r="L21" s="101"/>
-      <c r="M21" s="109"/>
-      <c r="N21" s="110"/>
-      <c r="O21" s="115" t="s">
-        <v>101</v>
-      </c>
-      <c r="P21" s="114"/>
-    </row>
-    <row r="22" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="105" t="s">
-        <v>90</v>
-      </c>
-      <c r="B22" s="106"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="62" t="s">
-        <v>74</v>
-      </c>
-      <c r="E22" s="104"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="44" t="s">
-        <v>87</v>
-      </c>
-      <c r="I22" s="61"/>
-      <c r="K22" s="105"/>
-      <c r="L22" s="118"/>
-      <c r="M22" s="105"/>
-      <c r="N22" s="106"/>
-      <c r="O22" s="119" t="s">
-        <v>102</v>
-      </c>
-      <c r="P22" s="120"/>
+      <c r="P22" s="113"/>
     </row>
     <row r="23" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:16" ht="28.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="80" t="s">
-        <v>91</v>
-      </c>
-      <c r="B24" s="81"/>
-      <c r="C24" s="81"/>
-      <c r="D24" s="81"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="81"/>
-      <c r="G24" s="81"/>
-      <c r="H24" s="81"/>
-      <c r="I24" s="82"/>
-      <c r="J24" s="38"/>
+      <c r="A24" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" s="78"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="78"/>
+      <c r="I24" s="79"/>
+      <c r="J24" s="37"/>
     </row>
     <row r="25" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
@@ -3015,150 +3009,160 @@
       <c r="B25" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="99" t="s">
+      <c r="C25" s="103" t="s">
         <v>61</v>
       </c>
-      <c r="D25" s="95"/>
-      <c r="E25" s="63" t="s">
-        <v>116</v>
-      </c>
-      <c r="F25" s="99" t="s">
-        <v>116</v>
-      </c>
-      <c r="G25" s="95"/>
-      <c r="H25" s="94" t="s">
-        <v>116</v>
-      </c>
-      <c r="I25" s="95"/>
-      <c r="J25" s="64"/>
+      <c r="D25" s="104"/>
+      <c r="E25" s="58" t="s">
+        <v>112</v>
+      </c>
+      <c r="F25" s="103" t="s">
+        <v>112</v>
+      </c>
+      <c r="G25" s="104"/>
+      <c r="H25" s="105" t="s">
+        <v>112</v>
+      </c>
+      <c r="I25" s="104"/>
+      <c r="J25" s="59"/>
     </row>
     <row r="26" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="65" t="s">
+      <c r="A26" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="65" t="s">
+      <c r="B26" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="96" t="s">
+      <c r="C26" s="106" t="s">
         <v>65</v>
       </c>
-      <c r="D26" s="97"/>
-      <c r="E26" s="58" t="s">
+      <c r="D26" s="107"/>
+      <c r="E26" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="F26" s="96" t="s">
+      <c r="F26" s="106" t="s">
         <v>66</v>
       </c>
-      <c r="G26" s="97"/>
-      <c r="H26" s="98" t="s">
+      <c r="G26" s="107"/>
+      <c r="H26" s="108" t="s">
         <v>65</v>
       </c>
-      <c r="I26" s="97"/>
-      <c r="J26" s="58"/>
+      <c r="I26" s="107"/>
+      <c r="J26" s="54"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="127" t="s">
-        <v>115</v>
-      </c>
-      <c r="B27" s="128" t="s">
-        <v>114</v>
-      </c>
-      <c r="C27" s="116" t="s">
+      <c r="A27" s="64" t="s">
+        <v>111</v>
+      </c>
+      <c r="B27" s="65" t="s">
         <v>110</v>
       </c>
-      <c r="D27" s="100"/>
-      <c r="E27" s="102" t="s">
-        <v>114</v>
-      </c>
-      <c r="F27" s="116" t="s">
-        <v>114</v>
-      </c>
-      <c r="G27" s="117"/>
-      <c r="H27" s="131" t="s">
-        <v>114</v>
-      </c>
-      <c r="I27" s="132"/>
+      <c r="C27" s="83" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" s="95"/>
+      <c r="E27" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="F27" s="83" t="s">
+        <v>110</v>
+      </c>
+      <c r="G27" s="84"/>
+      <c r="H27" s="89" t="s">
+        <v>110</v>
+      </c>
+      <c r="I27" s="90"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="129" t="s">
-        <v>115</v>
-      </c>
-      <c r="B28" s="130"/>
-      <c r="C28" s="109" t="s">
-        <v>113</v>
-      </c>
-      <c r="D28" s="101"/>
-      <c r="E28" s="103"/>
-      <c r="F28" s="109"/>
-      <c r="G28" s="110"/>
-      <c r="H28" s="133"/>
-      <c r="I28" s="134"/>
+      <c r="A28" s="101" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28" s="102"/>
+      <c r="C28" s="85" t="s">
+        <v>109</v>
+      </c>
+      <c r="D28" s="96"/>
+      <c r="E28" s="81"/>
+      <c r="F28" s="85"/>
+      <c r="G28" s="86"/>
+      <c r="H28" s="91"/>
+      <c r="I28" s="92"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="109"/>
-      <c r="B29" s="110"/>
-      <c r="C29" s="109" t="s">
-        <v>109</v>
-      </c>
-      <c r="D29" s="101"/>
-      <c r="E29" s="103"/>
-      <c r="F29" s="109"/>
-      <c r="G29" s="110"/>
-      <c r="H29" s="133"/>
-      <c r="I29" s="134"/>
+      <c r="A29" s="85"/>
+      <c r="B29" s="86"/>
+      <c r="C29" s="85" t="s">
+        <v>105</v>
+      </c>
+      <c r="D29" s="96"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="85"/>
+      <c r="G29" s="86"/>
+      <c r="H29" s="91"/>
+      <c r="I29" s="92"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="109"/>
-      <c r="B30" s="110"/>
-      <c r="C30" s="123" t="s">
-        <v>111</v>
-      </c>
-      <c r="D30" s="125"/>
-      <c r="E30" s="103"/>
-      <c r="F30" s="109"/>
-      <c r="G30" s="110"/>
-      <c r="H30" s="133"/>
-      <c r="I30" s="134"/>
+      <c r="A30" s="85"/>
+      <c r="B30" s="86"/>
+      <c r="C30" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="D30" s="98"/>
+      <c r="E30" s="81"/>
+      <c r="F30" s="85"/>
+      <c r="G30" s="86"/>
+      <c r="H30" s="91"/>
+      <c r="I30" s="92"/>
     </row>
     <row r="31" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="105"/>
-      <c r="B31" s="106"/>
-      <c r="C31" s="124" t="s">
-        <v>112</v>
-      </c>
-      <c r="D31" s="126"/>
-      <c r="E31" s="104"/>
-      <c r="F31" s="105"/>
-      <c r="G31" s="106"/>
-      <c r="H31" s="135"/>
-      <c r="I31" s="136"/>
+      <c r="A31" s="87"/>
+      <c r="B31" s="88"/>
+      <c r="C31" s="99" t="s">
+        <v>108</v>
+      </c>
+      <c r="D31" s="100"/>
+      <c r="E31" s="82"/>
+      <c r="F31" s="87"/>
+      <c r="G31" s="88"/>
+      <c r="H31" s="93"/>
+      <c r="I31" s="94"/>
     </row>
   </sheetData>
-  <mergeCells count="61">
-    <mergeCell ref="K15:P15"/>
-    <mergeCell ref="E27:E31"/>
-    <mergeCell ref="F27:G31"/>
-    <mergeCell ref="H27:I31"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="A28:B31"/>
-    <mergeCell ref="A24:I24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="M18:N22"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
+  <mergeCells count="68">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="E18:E22"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="O20:P20"/>
     <mergeCell ref="O21:P21"/>
@@ -3169,39 +3173,36 @@
     <mergeCell ref="M17:N17"/>
     <mergeCell ref="O16:P16"/>
     <mergeCell ref="O17:P17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="E18:E22"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="A28:B31"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="K15:P15"/>
+    <mergeCell ref="E27:E31"/>
+    <mergeCell ref="F27:G31"/>
+    <mergeCell ref="H27:I31"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="M18:N22"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B27 E27:F27 H27" numberStoredAsText="1"/>
+    <ignoredError sqref="B27 E27:F27 H27 J4 A4" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>